--- a/wash_P/PHI.xlsx
+++ b/wash_P/PHI.xlsx
@@ -32904,7 +32904,7 @@
         <v>0</v>
       </c>
       <c r="ABS10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABT10" t="n">
         <v>0</v>
@@ -36020,7 +36020,7 @@
         <v>0</v>
       </c>
       <c r="ABO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABP11" t="n">
         <v>0</v>
@@ -36032,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="ABS11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABT11" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>0</v>
       </c>
       <c r="ACB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACC11" t="n">
         <v>0</v>
@@ -43688,7 +43688,7 @@
         <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
@@ -46801,7 +46801,7 @@
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK15" t="n">
         <v>0</v>
@@ -68625,7 +68625,7 @@
         <v>0</v>
       </c>
       <c r="EL22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM22" t="n">
         <v>0</v>
